--- a/data_output/PYLL/PYLL_EU/EU_WYLL_(15-19)-(60-64)_['Female', 'Male', 'Total'].xlsx
+++ b/data_output/PYLL/PYLL_EU/EU_WYLL_(15-19)-(60-64)_['Female', 'Male', 'Total'].xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,13 +523,13 @@
         <v>67.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>2243.6</v>
+        <v>2121.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1078.8</v>
+        <v>1047</v>
       </c>
       <c r="G2" t="n">
-        <v>9.01</v>
+        <v>8.52</v>
       </c>
       <c r="H2" t="n">
         <v>1.49</v>
@@ -538,24 +538,24 @@
         <v>2941227</v>
       </c>
       <c r="J2" t="n">
-        <v>76.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>36.7</v>
+        <v>35.6</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2243.6 (±1078.8)</t>
+          <t>2121.3 (±1047.0)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>9.01 (±1.49)</t>
+          <t>8.52 (±1.49)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>76.3 (±36.7)</t>
+          <t>72.1 (±35.6)</t>
         </is>
       </c>
     </row>
@@ -577,13 +577,13 @@
         <v>158.3</v>
       </c>
       <c r="E3" t="n">
-        <v>4412.8</v>
+        <v>4122</v>
       </c>
       <c r="F3" t="n">
-        <v>2039.9</v>
+        <v>1961</v>
       </c>
       <c r="G3" t="n">
-        <v>7.59</v>
+        <v>7.09</v>
       </c>
       <c r="H3" t="n">
         <v>1.13</v>
@@ -592,24 +592,24 @@
         <v>2983150</v>
       </c>
       <c r="J3" t="n">
-        <v>147.9</v>
+        <v>138.2</v>
       </c>
       <c r="K3" t="n">
-        <v>68.40000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4412.8 (±2039.9)</t>
+          <t>4122.0 (±1961.0)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7.59 (±1.13)</t>
+          <t>7.09 (±1.13)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>147.9 (±68.4)</t>
+          <t>138.2 (±65.7)</t>
         </is>
       </c>
     </row>
@@ -631,13 +631,13 @@
         <v>164.8</v>
       </c>
       <c r="E4" t="n">
-        <v>5225.6</v>
+        <v>4840.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2194.4</v>
+        <v>2112</v>
       </c>
       <c r="G4" t="n">
-        <v>6.78</v>
+        <v>6.28</v>
       </c>
       <c r="H4" t="n">
         <v>1.16</v>
@@ -646,24 +646,24 @@
         <v>5924377</v>
       </c>
       <c r="J4" t="n">
-        <v>88.2</v>
+        <v>81.7</v>
       </c>
       <c r="K4" t="n">
-        <v>37</v>
+        <v>35.6</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5225.6 (±2194.4)</t>
+          <t>4840.5 (±2112.0)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.78 (±1.16)</t>
+          <t>6.28 (±1.16)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>88.2 (±37.0)</t>
+          <t>81.7 (±35.6)</t>
         </is>
       </c>
     </row>
@@ -679,45 +679,45 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
         <v>128.2</v>
       </c>
       <c r="E5" t="n">
-        <v>677.8</v>
+        <v>647.4</v>
       </c>
       <c r="F5" t="n">
-        <v>1131</v>
+        <v>1068</v>
       </c>
       <c r="G5" t="n">
-        <v>10.27</v>
+        <v>9.66</v>
       </c>
       <c r="H5" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="I5" t="n">
         <v>3661272</v>
       </c>
       <c r="J5" t="n">
-        <v>18.5</v>
+        <v>17.7</v>
       </c>
       <c r="K5" t="n">
-        <v>30.9</v>
+        <v>29.2</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>677.8 (±1131.0)</t>
+          <t>647.4 (±1068.0)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10.27 (±0.96)</t>
+          <t>9.66 (±0.87)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>18.5 (±30.9)</t>
+          <t>17.7 (±29.2)</t>
         </is>
       </c>
     </row>
@@ -739,13 +739,13 @@
         <v>274</v>
       </c>
       <c r="E6" t="n">
-        <v>3140.2</v>
+        <v>2906</v>
       </c>
       <c r="F6" t="n">
-        <v>2784.5</v>
+        <v>2647.5</v>
       </c>
       <c r="G6" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H6" t="n">
         <v>1.28</v>
@@ -754,24 +754,24 @@
         <v>3714412</v>
       </c>
       <c r="J6" t="n">
-        <v>84.5</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>75</v>
+        <v>71.3</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3140.2 (±2784.5)</t>
+          <t>2906.0 (±2647.5)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.7 (±1.28)</t>
+          <t>6.2 (±1.28)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>84.5 (±75.0)</t>
+          <t>78.2 (±71.3)</t>
         </is>
       </c>
     </row>
@@ -787,19 +787,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>513.4000000000001</v>
+        <v>514.4000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>437</v>
       </c>
       <c r="E7" t="n">
-        <v>3351.2</v>
+        <v>3097</v>
       </c>
       <c r="F7" t="n">
-        <v>4975</v>
+        <v>4756.6</v>
       </c>
       <c r="G7" t="n">
-        <v>6.53</v>
+        <v>6.02</v>
       </c>
       <c r="H7" t="n">
         <v>2.23</v>
@@ -808,24 +808,24 @@
         <v>7375684</v>
       </c>
       <c r="J7" t="n">
-        <v>45.4</v>
+        <v>42</v>
       </c>
       <c r="K7" t="n">
-        <v>67.5</v>
+        <v>64.5</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3351.2 (±4975.0)</t>
+          <t>3097.0 (±4756.6)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6.53 (±2.23)</t>
+          <t>6.02 (±2.23)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>45.4 (±67.5)</t>
+          <t>42.0 (±64.5)</t>
         </is>
       </c>
     </row>
@@ -847,13 +847,13 @@
         <v>191.1</v>
       </c>
       <c r="E8" t="n">
-        <v>8481.4</v>
+        <v>7946.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1869.8</v>
+        <v>1774.3</v>
       </c>
       <c r="G8" t="n">
-        <v>7.93</v>
+        <v>7.43</v>
       </c>
       <c r="H8" t="n">
         <v>0.28</v>
@@ -862,24 +862,24 @@
         <v>2194514</v>
       </c>
       <c r="J8" t="n">
-        <v>386.5</v>
+        <v>362.1</v>
       </c>
       <c r="K8" t="n">
-        <v>85.2</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8481.4 (±1869.8)</t>
+          <t>7946.5 (±1774.3)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7.93 (±0.28)</t>
+          <t>7.43 (±0.28)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>386.5 (±85.2)</t>
+          <t>362.1 (±80.9)</t>
         </is>
       </c>
     </row>
@@ -901,13 +901,13 @@
         <v>388</v>
       </c>
       <c r="E9" t="n">
-        <v>20784</v>
+        <v>19728.5</v>
       </c>
       <c r="F9" t="n">
-        <v>3655.5</v>
+        <v>3461.5</v>
       </c>
       <c r="G9" t="n">
-        <v>9.85</v>
+        <v>9.35</v>
       </c>
       <c r="H9" t="n">
         <v>0.07000000000000001</v>
@@ -916,24 +916,24 @@
         <v>2250622</v>
       </c>
       <c r="J9" t="n">
-        <v>923.5</v>
+        <v>876.6</v>
       </c>
       <c r="K9" t="n">
-        <v>162.4</v>
+        <v>153.8</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>20784.0 (±3655.5)</t>
+          <t>19728.5 (±3461.5)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>9.85 (±0.07)</t>
+          <t>9.35 (±0.07)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>923.5 (±162.4)</t>
+          <t>876.6 (±153.8)</t>
         </is>
       </c>
     </row>
@@ -955,13 +955,13 @@
         <v>525.3</v>
       </c>
       <c r="E10" t="n">
-        <v>29153.4</v>
+        <v>27565</v>
       </c>
       <c r="F10" t="n">
-        <v>4822.900000000001</v>
+        <v>4560.2</v>
       </c>
       <c r="G10" t="n">
-        <v>9.18</v>
+        <v>8.68</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -970,24 +970,24 @@
         <v>4445136</v>
       </c>
       <c r="J10" t="n">
-        <v>655.8</v>
+        <v>620.1</v>
       </c>
       <c r="K10" t="n">
-        <v>108.5</v>
+        <v>102.6</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>29153.4 (±4822.9)</t>
+          <t>27565.0 (±4560.2)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9.18 (±0.0)</t>
+          <t>8.68 (±0.0)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>655.8 (±108.5)</t>
+          <t>620.1 (±102.6)</t>
         </is>
       </c>
     </row>
@@ -1003,45 +1003,45 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>44.5</v>
       </c>
       <c r="E11" t="n">
-        <v>437.2</v>
+        <v>355.5</v>
       </c>
       <c r="F11" t="n">
-        <v>569.5</v>
+        <v>547.3</v>
       </c>
       <c r="G11" t="n">
-        <v>6.39</v>
+        <v>5.27</v>
       </c>
       <c r="H11" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
         <v>1299548</v>
       </c>
       <c r="J11" t="n">
-        <v>33.6</v>
+        <v>27.4</v>
       </c>
       <c r="K11" t="n">
-        <v>43.8</v>
+        <v>42.1</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>437.2 (±569.5)</t>
+          <t>355.5 (±547.3)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6.39 (±2.53)</t>
+          <t>5.27 (±2.8)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>33.6 (±43.8)</t>
+          <t>27.4 (±42.1)</t>
         </is>
       </c>
     </row>
@@ -1057,45 +1057,45 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
         <v>92.7</v>
       </c>
       <c r="E12" t="n">
-        <v>587.6</v>
+        <v>570.3</v>
       </c>
       <c r="F12" t="n">
-        <v>839.3000000000001</v>
+        <v>795.6</v>
       </c>
       <c r="G12" t="n">
-        <v>15.46</v>
+        <v>15.41</v>
       </c>
       <c r="H12" t="n">
-        <v>4.54</v>
+        <v>4.88</v>
       </c>
       <c r="I12" t="n">
         <v>1323362</v>
       </c>
       <c r="J12" t="n">
-        <v>44.4</v>
+        <v>43.1</v>
       </c>
       <c r="K12" t="n">
-        <v>63.4</v>
+        <v>60.1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>587.6 (±839.3)</t>
+          <t>570.3 (±795.6)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>15.46 (±4.54)</t>
+          <t>15.41 (±4.88)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>44.4 (±63.4)</t>
+          <t>43.1 (±60.1)</t>
         </is>
       </c>
     </row>
@@ -1117,13 +1117,13 @@
         <v>108.3</v>
       </c>
       <c r="E13" t="n">
-        <v>558.2</v>
+        <v>515.7</v>
       </c>
       <c r="F13" t="n">
-        <v>953.6999999999999</v>
+        <v>902.5999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>6.16</v>
+        <v>5.69</v>
       </c>
       <c r="H13" t="n">
         <v>1.44</v>
@@ -1132,24 +1132,24 @@
         <v>2622910</v>
       </c>
       <c r="J13" t="n">
-        <v>21.3</v>
+        <v>19.7</v>
       </c>
       <c r="K13" t="n">
-        <v>36.4</v>
+        <v>34.4</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>558.2 (±953.7)</t>
+          <t>515.7 (±902.6)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6.16 (±1.44)</t>
+          <t>5.69 (±1.44)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>21.3 (±36.4)</t>
+          <t>19.7 (±34.4)</t>
         </is>
       </c>
     </row>
@@ -1171,13 +1171,13 @@
         <v>20.9</v>
       </c>
       <c r="E14" t="n">
-        <v>448.8</v>
+        <v>436</v>
       </c>
       <c r="F14" t="n">
-        <v>294.7</v>
+        <v>284.3</v>
       </c>
       <c r="G14" t="n">
-        <v>17.53</v>
+        <v>17.03</v>
       </c>
       <c r="H14" t="n">
         <v>1.54</v>
@@ -1186,24 +1186,24 @@
         <v>305793</v>
       </c>
       <c r="J14" t="n">
-        <v>146.8</v>
+        <v>142.6</v>
       </c>
       <c r="K14" t="n">
-        <v>96.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>448.8 (±294.7)</t>
+          <t>436.0 (±284.3)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>17.53 (±1.54)</t>
+          <t>17.03 (±1.54)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>146.8 (±96.4)</t>
+          <t>142.6 (±93.0)</t>
         </is>
       </c>
     </row>
@@ -1225,13 +1225,13 @@
         <v>32.6</v>
       </c>
       <c r="E15" t="n">
-        <v>609.2</v>
+        <v>568.5</v>
       </c>
       <c r="F15" t="n">
-        <v>348.3</v>
+        <v>332</v>
       </c>
       <c r="G15" t="n">
-        <v>7.48</v>
+        <v>6.98</v>
       </c>
       <c r="H15" t="n">
         <v>0.92</v>
@@ -1240,24 +1240,24 @@
         <v>294940</v>
       </c>
       <c r="J15" t="n">
-        <v>206.6</v>
+        <v>192.8</v>
       </c>
       <c r="K15" t="n">
-        <v>118.1</v>
+        <v>112.6</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>609.2 (±348.3)</t>
+          <t>568.5 (±332.0)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>7.48 (±0.92)</t>
+          <t>6.98 (±0.92)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>206.6 (±118.1)</t>
+          <t>192.8 (±112.6)</t>
         </is>
       </c>
     </row>
@@ -1279,13 +1279,13 @@
         <v>28.5</v>
       </c>
       <c r="E16" t="n">
-        <v>834.4000000000001</v>
+        <v>784</v>
       </c>
       <c r="F16" t="n">
-        <v>263</v>
+        <v>248.7</v>
       </c>
       <c r="G16" t="n">
-        <v>8.279999999999999</v>
+        <v>7.78</v>
       </c>
       <c r="H16" t="n">
         <v>0.21</v>
@@ -1294,24 +1294,24 @@
         <v>600733</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9</v>
+        <v>130.5</v>
       </c>
       <c r="K16" t="n">
-        <v>43.8</v>
+        <v>41.4</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>834.4 (±263.0)</t>
+          <t>784.0 (±248.7)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>8.28 (±0.21)</t>
+          <t>7.78 (±0.21)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>138.9 (±43.8)</t>
+          <t>130.5 (±41.4)</t>
         </is>
       </c>
     </row>
@@ -1333,13 +1333,13 @@
         <v>134.6</v>
       </c>
       <c r="E17" t="n">
-        <v>4654.8</v>
+        <v>4507.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1924.8</v>
+        <v>1857.4</v>
       </c>
       <c r="G17" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="H17" t="n">
         <v>0.47</v>
@@ -1348,24 +1348,24 @@
         <v>3354390</v>
       </c>
       <c r="J17" t="n">
-        <v>138.8</v>
+        <v>134.4</v>
       </c>
       <c r="K17" t="n">
-        <v>57.4</v>
+        <v>55.4</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4654.8 (±1924.8)</t>
+          <t>4507.5 (±1857.4)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>15.8 (±0.47)</t>
+          <t>15.3 (±0.47)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>138.8 (±57.4)</t>
+          <t>134.4 (±55.4)</t>
         </is>
       </c>
     </row>
@@ -1387,13 +1387,13 @@
         <v>287.4</v>
       </c>
       <c r="E18" t="n">
-        <v>7008.4</v>
+        <v>6748</v>
       </c>
       <c r="F18" t="n">
-        <v>4321.200000000001</v>
+        <v>4177.5</v>
       </c>
       <c r="G18" t="n">
-        <v>13.46</v>
+        <v>12.96</v>
       </c>
       <c r="H18" t="n">
         <v>0.5600000000000001</v>
@@ -1402,24 +1402,24 @@
         <v>3497717</v>
       </c>
       <c r="J18" t="n">
-        <v>200.4</v>
+        <v>192.9</v>
       </c>
       <c r="K18" t="n">
-        <v>123.5</v>
+        <v>119.4</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>7008.4 (±4321.2)</t>
+          <t>6748.0 (±4177.5)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13.46 (±0.56)</t>
+          <t>12.96 (±0.56)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>200.4 (±123.5)</t>
+          <t>192.9 (±119.4)</t>
         </is>
       </c>
     </row>
@@ -1441,13 +1441,13 @@
         <v>366.2</v>
       </c>
       <c r="E19" t="n">
-        <v>11320</v>
+        <v>10917</v>
       </c>
       <c r="F19" t="n">
-        <v>5133.1</v>
+        <v>4950</v>
       </c>
       <c r="G19" t="n">
-        <v>14.04</v>
+        <v>13.54</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1456,24 +1456,24 @@
         <v>6852107</v>
       </c>
       <c r="J19" t="n">
-        <v>165.2</v>
+        <v>159.3</v>
       </c>
       <c r="K19" t="n">
-        <v>74.90000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>11320.0 (±5133.1)</t>
+          <t>10917.0 (±4950.0)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>14.04 (±0.0)</t>
+          <t>13.54 (±0.0)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>165.2 (±74.9)</t>
+          <t>159.3 (±72.2)</t>
         </is>
       </c>
     </row>
@@ -1495,13 +1495,13 @@
         <v>17.5</v>
       </c>
       <c r="E20" t="n">
-        <v>697.8</v>
+        <v>689</v>
       </c>
       <c r="F20" t="n">
-        <v>689.5</v>
+        <v>680.7</v>
       </c>
       <c r="G20" t="n">
-        <v>39.65</v>
+        <v>39.15</v>
       </c>
       <c r="H20" t="n">
         <v>0.13</v>
@@ -1510,24 +1510,24 @@
         <v>1838194</v>
       </c>
       <c r="J20" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="K20" t="n">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>697.8 (±689.5)</t>
+          <t>689.0 (±680.7)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>39.65 (±0.13)</t>
+          <t>39.15 (±0.13)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>38.0 (±37.5)</t>
+          <t>37.5 (±37.0)</t>
         </is>
       </c>
     </row>
@@ -1549,13 +1549,13 @@
         <v>7.3</v>
       </c>
       <c r="E21" t="n">
-        <v>753.2</v>
+        <v>741.5</v>
       </c>
       <c r="F21" t="n">
-        <v>222.4</v>
+        <v>218.7</v>
       </c>
       <c r="G21" t="n">
-        <v>32.19</v>
+        <v>31.69</v>
       </c>
       <c r="H21" t="n">
         <v>0.41</v>
@@ -1564,24 +1564,24 @@
         <v>1875460</v>
       </c>
       <c r="J21" t="n">
-        <v>40.2</v>
+        <v>39.5</v>
       </c>
       <c r="K21" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>753.2 (±222.4)</t>
+          <t>741.5 (±218.7)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>32.19 (±0.41)</t>
+          <t>31.69 (±0.41)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>40.2 (±11.9)</t>
+          <t>39.5 (±11.7)</t>
         </is>
       </c>
     </row>
@@ -1603,13 +1603,13 @@
         <v>26.5</v>
       </c>
       <c r="E22" t="n">
-        <v>1220</v>
+        <v>1203</v>
       </c>
       <c r="F22" t="n">
-        <v>1013</v>
+        <v>999.8</v>
       </c>
       <c r="G22" t="n">
-        <v>35.88</v>
+        <v>35.38</v>
       </c>
       <c r="H22" t="n">
         <v>1.03</v>
@@ -1618,24 +1618,24 @@
         <v>3713654</v>
       </c>
       <c r="J22" t="n">
-        <v>32.9</v>
+        <v>32.4</v>
       </c>
       <c r="K22" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1220.0 (±1013.0)</t>
+          <t>1203.0 (±999.8)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>35.88 (±1.03)</t>
+          <t>35.38 (±1.03)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>32.9 (±27.3)</t>
+          <t>32.4 (±26.9)</t>
         </is>
       </c>
     </row>
@@ -1657,13 +1657,13 @@
         <v>51.5</v>
       </c>
       <c r="E23" t="n">
-        <v>994.2</v>
+        <v>952.5</v>
       </c>
       <c r="F23" t="n">
-        <v>643.5</v>
+        <v>617.7</v>
       </c>
       <c r="G23" t="n">
-        <v>11.92</v>
+        <v>11.42</v>
       </c>
       <c r="H23" t="n">
         <v>0.22</v>
@@ -1672,24 +1672,24 @@
         <v>419478</v>
       </c>
       <c r="J23" t="n">
-        <v>237</v>
+        <v>227.1</v>
       </c>
       <c r="K23" t="n">
-        <v>153.4</v>
+        <v>147.3</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>994.2 (±643.5)</t>
+          <t>952.5 (±617.7)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11.92 (±0.22)</t>
+          <t>11.42 (±0.22)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>237.0 (±153.4)</t>
+          <t>227.1 (±147.3)</t>
         </is>
       </c>
     </row>
@@ -1711,13 +1711,13 @@
         <v>69.8</v>
       </c>
       <c r="E24" t="n">
-        <v>797.9999999999999</v>
+        <v>767</v>
       </c>
       <c r="F24" t="n">
-        <v>920.9</v>
+        <v>886.0999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>12.87</v>
+        <v>12.37</v>
       </c>
       <c r="H24" t="n">
         <v>0.17</v>
@@ -1726,24 +1726,24 @@
         <v>424508</v>
       </c>
       <c r="J24" t="n">
-        <v>188</v>
+        <v>180.7</v>
       </c>
       <c r="K24" t="n">
-        <v>216.9</v>
+        <v>208.7</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>798.0 (±920.9)</t>
+          <t>767.0 (±886.1)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>12.87 (±0.17)</t>
+          <t>12.37 (±0.17)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>188.0 (±216.9)</t>
+          <t>180.7 (±208.7)</t>
         </is>
       </c>
     </row>
@@ -1765,13 +1765,13 @@
         <v>121.6</v>
       </c>
       <c r="E25" t="n">
-        <v>1632</v>
+        <v>1568</v>
       </c>
       <c r="F25" t="n">
-        <v>1325.3</v>
+        <v>1264.5</v>
       </c>
       <c r="G25" t="n">
-        <v>12.75</v>
+        <v>12.25</v>
       </c>
       <c r="H25" t="n">
         <v>0.9</v>
@@ -1780,24 +1780,24 @@
         <v>843986</v>
       </c>
       <c r="J25" t="n">
-        <v>193.4</v>
+        <v>185.8</v>
       </c>
       <c r="K25" t="n">
-        <v>157</v>
+        <v>149.8</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1632.0 (±1325.3)</t>
+          <t>1568.0 (±1264.5)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>12.75 (±0.9)</t>
+          <t>12.25 (±0.9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>193.4 (±157.0)</t>
+          <t>185.8 (±149.8)</t>
         </is>
       </c>
     </row>
@@ -1819,39 +1819,39 @@
         <v>28.3</v>
       </c>
       <c r="E26" t="n">
-        <v>821.0000000000001</v>
+        <v>812.8</v>
       </c>
       <c r="F26" t="n">
-        <v>884</v>
+        <v>871.3</v>
       </c>
       <c r="G26" t="n">
-        <v>36.01</v>
+        <v>35.65</v>
       </c>
       <c r="H26" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="I26" t="n">
         <v>1681650</v>
       </c>
       <c r="J26" t="n">
-        <v>48.8</v>
+        <v>48.3</v>
       </c>
       <c r="K26" t="n">
-        <v>52.6</v>
+        <v>51.8</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>821.0 (±884.0)</t>
+          <t>812.8 (±871.3)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>36.01 (±2.64)</t>
+          <t>35.65 (±2.69)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>48.8 (±52.6)</t>
+          <t>48.3 (±51.8)</t>
         </is>
       </c>
     </row>
@@ -1873,39 +1873,39 @@
         <v>37.1</v>
       </c>
       <c r="E27" t="n">
-        <v>2391</v>
+        <v>2360.2</v>
       </c>
       <c r="F27" t="n">
-        <v>1334.3</v>
+        <v>1320.5</v>
       </c>
       <c r="G27" t="n">
-        <v>31.8</v>
+        <v>31.39</v>
       </c>
       <c r="H27" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="I27" t="n">
         <v>1741332</v>
       </c>
       <c r="J27" t="n">
-        <v>137.3</v>
+        <v>135.5</v>
       </c>
       <c r="K27" t="n">
-        <v>76.59999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2391.0 (±1334.3)</t>
+          <t>2360.2 (±1320.5)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>31.8 (±1.37)</t>
+          <t>31.39 (±1.39)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>137.3 (±76.6)</t>
+          <t>135.5 (±75.8)</t>
         </is>
       </c>
     </row>
@@ -1927,39 +1927,39 @@
         <v>60.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>2948.2</v>
+        <v>2912.5</v>
       </c>
       <c r="F28" t="n">
-        <v>1990.6</v>
+        <v>1965.3</v>
       </c>
       <c r="G28" t="n">
-        <v>32.26</v>
+        <v>31.87</v>
       </c>
       <c r="H28" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="I28" t="n">
         <v>3422982</v>
       </c>
       <c r="J28" t="n">
-        <v>86.09999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>58.2</v>
+        <v>57.4</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2948.2 (±1990.6)</t>
+          <t>2912.5 (±1965.3)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>32.26 (±0.34)</t>
+          <t>31.87 (±0.33)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>86.1 (±58.2)</t>
+          <t>85.1 (±57.4)</t>
         </is>
       </c>
     </row>
@@ -1975,45 +1975,45 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>437.2</v>
+        <v>439.2</v>
       </c>
       <c r="D29" t="n">
         <v>70.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>2403.6</v>
+        <v>2190</v>
       </c>
       <c r="F29" t="n">
-        <v>846.3</v>
+        <v>811.2</v>
       </c>
       <c r="G29" t="n">
-        <v>5.5</v>
+        <v>4.99</v>
       </c>
       <c r="H29" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="I29" t="n">
         <v>21076715</v>
       </c>
       <c r="J29" t="n">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2403.6 (±846.3)</t>
+          <t>2190.0 (±811.2)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>5.5 (±0.91)</t>
+          <t>4.99 (±0.9)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>11.4 (±4.0)</t>
+          <t>10.4 (±3.8)</t>
         </is>
       </c>
     </row>
@@ -2029,19 +2029,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>248.8</v>
+        <v>250.8</v>
       </c>
       <c r="D30" t="n">
         <v>501.6</v>
       </c>
       <c r="E30" t="n">
-        <v>746.4</v>
+        <v>627</v>
       </c>
       <c r="F30" t="n">
-        <v>1504.8</v>
+        <v>1254</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2050,24 +2050,24 @@
         <v>20464072</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>746.4 (±1504.8)</t>
+          <t>627.0 (±1254.0)</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3.0 (±0.0)</t>
+          <t>2.5 (±0.0)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>3.6 (±7.4)</t>
+          <t>3.1 (±6.1)</t>
         </is>
       </c>
     </row>
@@ -2083,45 +2083,45 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>661.4</v>
+        <v>666.4</v>
       </c>
       <c r="D31" t="n">
         <v>542.1</v>
       </c>
       <c r="E31" t="n">
-        <v>2338.2</v>
+        <v>2050</v>
       </c>
       <c r="F31" t="n">
-        <v>2733.3</v>
+        <v>2462.2</v>
       </c>
       <c r="G31" t="n">
-        <v>3.54</v>
+        <v>3.08</v>
       </c>
       <c r="H31" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="I31" t="n">
         <v>41540787</v>
       </c>
       <c r="J31" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="K31" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2338.2 (±2733.3)</t>
+          <t>2050.0 (±2462.2)</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>3.54 (±0.67)</t>
+          <t>3.08 (±0.65)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>5.6 (±6.6)</t>
+          <t>4.9 (±5.9)</t>
         </is>
       </c>
     </row>
@@ -2143,39 +2143,39 @@
         <v>124.2</v>
       </c>
       <c r="E32" t="n">
-        <v>1716.6</v>
+        <v>1594.1</v>
       </c>
       <c r="F32" t="n">
-        <v>1314</v>
+        <v>1253.8</v>
       </c>
       <c r="G32" t="n">
-        <v>6.96</v>
+        <v>6.46</v>
       </c>
       <c r="H32" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I32" t="n">
         <v>3434066</v>
       </c>
       <c r="J32" t="n">
-        <v>50</v>
+        <v>46.4</v>
       </c>
       <c r="K32" t="n">
-        <v>38.3</v>
+        <v>36.5</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1716.6 (±1314.0)</t>
+          <t>1594.1 (±1253.8)</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>6.96 (±1.21)</t>
+          <t>6.46 (±1.22)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>50.0 (±38.3)</t>
+          <t>46.4 (±36.5)</t>
         </is>
       </c>
     </row>
@@ -2197,13 +2197,13 @@
         <v>50.2</v>
       </c>
       <c r="E33" t="n">
-        <v>753.2</v>
+        <v>658</v>
       </c>
       <c r="F33" t="n">
-        <v>277.6</v>
+        <v>252.6</v>
       </c>
       <c r="G33" t="n">
-        <v>3.96</v>
+        <v>3.46</v>
       </c>
       <c r="H33" t="n">
         <v>0.32</v>
@@ -2212,24 +2212,24 @@
         <v>3370780</v>
       </c>
       <c r="J33" t="n">
-        <v>22.3</v>
+        <v>19.5</v>
       </c>
       <c r="K33" t="n">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>753.2 (±277.6)</t>
+          <t>658.0 (±252.6)</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>3.96 (±0.32)</t>
+          <t>3.46 (±0.32)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>22.3 (±8.2)</t>
+          <t>19.5 (±7.5)</t>
         </is>
       </c>
     </row>
@@ -2251,13 +2251,13 @@
         <v>141.9</v>
       </c>
       <c r="E34" t="n">
-        <v>2120</v>
+        <v>1912.5</v>
       </c>
       <c r="F34" t="n">
-        <v>1059.7</v>
+        <v>988.8</v>
       </c>
       <c r="G34" t="n">
-        <v>5.11</v>
+        <v>4.61</v>
       </c>
       <c r="H34" t="n">
         <v>0.6</v>
@@ -2266,24 +2266,24 @@
         <v>6804846</v>
       </c>
       <c r="J34" t="n">
-        <v>31.2</v>
+        <v>28.1</v>
       </c>
       <c r="K34" t="n">
-        <v>15.6</v>
+        <v>14.5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2120.0 (±1059.7)</t>
+          <t>1912.5 (±988.8)</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5.11 (±0.6)</t>
+          <t>4.61 (±0.6)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>31.2 (±15.6)</t>
+          <t>28.1 (±14.5)</t>
         </is>
       </c>
     </row>
@@ -2305,13 +2305,13 @@
         <v>147.2</v>
       </c>
       <c r="E35" t="n">
-        <v>4028.2</v>
+        <v>3927.5</v>
       </c>
       <c r="F35" t="n">
-        <v>2965.6</v>
+        <v>2892</v>
       </c>
       <c r="G35" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="H35" t="n">
         <v>0.06</v>
@@ -2320,24 +2320,24 @@
         <v>3196393</v>
       </c>
       <c r="J35" t="n">
-        <v>126</v>
+        <v>122.9</v>
       </c>
       <c r="K35" t="n">
-        <v>92.8</v>
+        <v>90.5</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>4028.2 (±2965.6)</t>
+          <t>3927.5 (±2892.0)</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>20.0 (±0.06)</t>
+          <t>19.5 (±0.06)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>126.0 (±92.8)</t>
+          <t>122.9 (±90.5)</t>
         </is>
       </c>
     </row>
@@ -2359,13 +2359,13 @@
         <v>232</v>
       </c>
       <c r="E36" t="n">
-        <v>5226.2</v>
+        <v>5082.5</v>
       </c>
       <c r="F36" t="n">
-        <v>4743.5</v>
+        <v>4627.6</v>
       </c>
       <c r="G36" t="n">
-        <v>18.18</v>
+        <v>17.68</v>
       </c>
       <c r="H36" t="n">
         <v>1.01</v>
@@ -2374,24 +2374,24 @@
         <v>3209563</v>
       </c>
       <c r="J36" t="n">
-        <v>162.8</v>
+        <v>158.4</v>
       </c>
       <c r="K36" t="n">
-        <v>147.8</v>
+        <v>144.2</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>5226.2 (±4743.5)</t>
+          <t>5082.5 (±4627.6)</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>18.18 (±1.01)</t>
+          <t>17.68 (±1.01)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>162.8 (±147.8)</t>
+          <t>158.4 (±144.2)</t>
         </is>
       </c>
     </row>
@@ -2413,13 +2413,13 @@
         <v>351.9</v>
       </c>
       <c r="E37" t="n">
-        <v>9254.400000000001</v>
+        <v>9010</v>
       </c>
       <c r="F37" t="n">
-        <v>6918.7</v>
+        <v>6742.7</v>
       </c>
       <c r="G37" t="n">
-        <v>18.93</v>
+        <v>18.43</v>
       </c>
       <c r="H37" t="n">
         <v>0.31</v>
@@ -2428,24 +2428,24 @@
         <v>6405956</v>
       </c>
       <c r="J37" t="n">
-        <v>144.5</v>
+        <v>140.7</v>
       </c>
       <c r="K37" t="n">
-        <v>108</v>
+        <v>105.3</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>9254.4 (±6918.7)</t>
+          <t>9010.0 (±6742.7)</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>18.93 (±0.31)</t>
+          <t>18.43 (±0.31)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>144.5 (±108.0)</t>
+          <t>140.7 (±105.3)</t>
         </is>
       </c>
     </row>
@@ -2467,39 +2467,39 @@
         <v>11.9</v>
       </c>
       <c r="E38" t="n">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7</v>
+        <v>256.9</v>
       </c>
       <c r="G38" t="n">
-        <v>26.06</v>
+        <v>25.56</v>
       </c>
       <c r="H38" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="I38" t="n">
         <v>116697</v>
       </c>
       <c r="J38" t="n">
-        <v>357.3</v>
+        <v>350.5</v>
       </c>
       <c r="K38" t="n">
-        <v>225.1</v>
+        <v>220.1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>417.0 (±262.7)</t>
+          <t>409.0 (±256.9)</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>26.06 (±1.7)</t>
+          <t>25.56 (±1.69)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>357.3 (±225.1)</t>
+          <t>350.5 (±220.1)</t>
         </is>
       </c>
     </row>
@@ -2521,13 +2521,13 @@
         <v>21.3</v>
       </c>
       <c r="E39" t="n">
-        <v>297.4</v>
+        <v>288</v>
       </c>
       <c r="F39" t="n">
-        <v>247.9</v>
+        <v>237.2</v>
       </c>
       <c r="G39" t="n">
-        <v>15.82</v>
+        <v>15.32</v>
       </c>
       <c r="H39" t="n">
         <v>2.22</v>
@@ -2536,24 +2536,24 @@
         <v>126745</v>
       </c>
       <c r="J39" t="n">
-        <v>234.6</v>
+        <v>227.2</v>
       </c>
       <c r="K39" t="n">
-        <v>195.6</v>
+        <v>187.1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>297.4 (±247.9)</t>
+          <t>288.0 (±237.2)</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>15.82 (±2.22)</t>
+          <t>15.32 (±2.22)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>234.6 (±195.6)</t>
+          <t>227.2 (±187.1)</t>
         </is>
       </c>
     </row>
@@ -2575,13 +2575,13 @@
         <v>24.3</v>
       </c>
       <c r="E40" t="n">
-        <v>642.6000000000001</v>
+        <v>627.5</v>
       </c>
       <c r="F40" t="n">
-        <v>391.4</v>
+        <v>379.2</v>
       </c>
       <c r="G40" t="n">
-        <v>21.28</v>
+        <v>20.78</v>
       </c>
       <c r="H40" t="n">
         <v>2.31</v>
@@ -2590,24 +2590,24 @@
         <v>243442</v>
       </c>
       <c r="J40" t="n">
-        <v>264</v>
+        <v>257.8</v>
       </c>
       <c r="K40" t="n">
-        <v>160.8</v>
+        <v>155.8</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>642.6 (±391.4)</t>
+          <t>627.5 (±379.2)</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>21.28 (±2.31)</t>
+          <t>20.78 (±2.31)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>264.0 (±160.8)</t>
+          <t>257.8 (±155.8)</t>
         </is>
       </c>
     </row>
@@ -2623,19 +2623,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1543</v>
+        <v>1547</v>
       </c>
       <c r="D41" t="n">
         <v>341.1</v>
       </c>
       <c r="E41" t="n">
-        <v>8928.799999999999</v>
+        <v>8179.4</v>
       </c>
       <c r="F41" t="n">
-        <v>2764.4</v>
+        <v>2597.2</v>
       </c>
       <c r="G41" t="n">
-        <v>5.79</v>
+        <v>5.29</v>
       </c>
       <c r="H41" t="n">
         <v>0.42</v>
@@ -2644,24 +2644,24 @@
         <v>19025113</v>
       </c>
       <c r="J41" t="n">
-        <v>46.9</v>
+        <v>43</v>
       </c>
       <c r="K41" t="n">
-        <v>14.5</v>
+        <v>13.7</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>8928.8 (±2764.4)</t>
+          <t>8179.4 (±2597.2)</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>5.79 (±0.42)</t>
+          <t>5.29 (±0.42)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>46.9 (±14.5)</t>
+          <t>43.0 (±13.7)</t>
         </is>
       </c>
     </row>
@@ -2677,45 +2677,45 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4211.6</v>
+        <v>4218.6</v>
       </c>
       <c r="D42" t="n">
         <v>599.2</v>
       </c>
       <c r="E42" t="n">
-        <v>22885.8</v>
+        <v>20802.5</v>
       </c>
       <c r="F42" t="n">
-        <v>3985.099999999999</v>
+        <v>3685.5</v>
       </c>
       <c r="G42" t="n">
-        <v>5.43</v>
+        <v>4.93</v>
       </c>
       <c r="H42" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I42" t="n">
         <v>19029731</v>
       </c>
       <c r="J42" t="n">
-        <v>120.3</v>
+        <v>109.3</v>
       </c>
       <c r="K42" t="n">
-        <v>20.9</v>
+        <v>19.4</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>22885.8 (±3985.1)</t>
+          <t>20802.5 (±3685.5)</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5.43 (±0.16)</t>
+          <t>4.93 (±0.15)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>120.3 (±20.9)</t>
+          <t>109.3 (±19.4)</t>
         </is>
       </c>
     </row>
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5750.4</v>
+        <v>5761.4</v>
       </c>
       <c r="D43" t="n">
         <v>874.6</v>
       </c>
       <c r="E43" t="n">
-        <v>31617.2</v>
+        <v>28784.5</v>
       </c>
       <c r="F43" t="n">
-        <v>6020.799999999999</v>
+        <v>5583.5</v>
       </c>
       <c r="G43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
         <v>0.18</v>
@@ -2752,24 +2752,24 @@
         <v>38054844</v>
       </c>
       <c r="J43" t="n">
-        <v>83.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>31617.2 (±6020.8)</t>
+          <t>28784.5 (±5583.5)</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>5.5 (±0.18)</t>
+          <t>5.0 (±0.18)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>83.1 (±15.8)</t>
+          <t>75.6 (±14.7)</t>
         </is>
       </c>
     </row>
@@ -2791,13 +2791,13 @@
         <v>21.8</v>
       </c>
       <c r="E44" t="n">
-        <v>132.6</v>
+        <v>110.5</v>
       </c>
       <c r="F44" t="n">
-        <v>65.40000000000001</v>
+        <v>54.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2806,24 +2806,24 @@
         <v>617083</v>
       </c>
       <c r="J44" t="n">
-        <v>21.5</v>
+        <v>17.9</v>
       </c>
       <c r="K44" t="n">
-        <v>10.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>132.6 (±65.4)</t>
+          <t>110.5 (±54.5)</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3.0 (±0.0)</t>
+          <t>2.5 (±0.0)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>21.5 (±10.6)</t>
+          <t>17.9 (±8.8)</t>
         </is>
       </c>
     </row>
@@ -2845,13 +2845,13 @@
         <v>15.4</v>
       </c>
       <c r="E45" t="n">
-        <v>72.59999999999999</v>
+        <v>60.5</v>
       </c>
       <c r="F45" t="n">
-        <v>46.2</v>
+        <v>38.5</v>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2860,24 +2860,24 @@
         <v>593991</v>
       </c>
       <c r="J45" t="n">
-        <v>12.2</v>
+        <v>10.2</v>
       </c>
       <c r="K45" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>72.6 (±46.2)</t>
+          <t>60.5 (±38.5)</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3.0 (±0.0)</t>
+          <t>2.5 (±0.0)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>12.2 (±7.8)</t>
+          <t>10.2 (±6.5)</t>
         </is>
       </c>
     </row>
@@ -2899,13 +2899,13 @@
         <v>32.4</v>
       </c>
       <c r="E46" t="n">
-        <v>205.2</v>
+        <v>171</v>
       </c>
       <c r="F46" t="n">
-        <v>97.2</v>
+        <v>81</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2914,31 +2914,31 @@
         <v>1211074</v>
       </c>
       <c r="J46" t="n">
-        <v>16.9</v>
+        <v>14.1</v>
       </c>
       <c r="K46" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>205.2 (±97.2)</t>
+          <t>171.0 (±81.0)</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3.0 (±0.0)</t>
+          <t>2.5 (±0.0)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>16.9 (±8.0)</t>
+          <t>14.1 (±6.7)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2947,52 +2947,52 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.6</v>
+        <v>260.6</v>
       </c>
       <c r="D47" t="n">
-        <v>2.4</v>
+        <v>102.8</v>
       </c>
       <c r="E47" t="n">
-        <v>36.8</v>
+        <v>1595.8</v>
       </c>
       <c r="F47" t="n">
-        <v>23.7</v>
+        <v>1108.8</v>
       </c>
       <c r="G47" t="n">
-        <v>10.22</v>
+        <v>6.12</v>
       </c>
       <c r="H47" t="n">
-        <v>0.14</v>
+        <v>1.32</v>
       </c>
       <c r="I47" t="n">
-        <v>13035</v>
+        <v>915802</v>
       </c>
       <c r="J47" t="n">
-        <v>282.3</v>
+        <v>174.3</v>
       </c>
       <c r="K47" t="n">
-        <v>181.8</v>
+        <v>121.1</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>36.8 (±23.7)</t>
+          <t>1595.8 (±1108.8)</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>10.22 (±0.14)</t>
+          <t>6.12 (±1.32)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>282.3 (±181.8)</t>
+          <t>174.3 (±121.1)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3001,52 +3001,52 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5.6</v>
+        <v>549</v>
       </c>
       <c r="D48" t="n">
-        <v>3.3</v>
+        <v>337.8</v>
       </c>
       <c r="E48" t="n">
-        <v>165.8</v>
+        <v>3034.5</v>
       </c>
       <c r="F48" t="n">
-        <v>40.9</v>
+        <v>3401.5</v>
       </c>
       <c r="G48" t="n">
-        <v>29.61</v>
+        <v>5.53</v>
       </c>
       <c r="H48" t="n">
-        <v>6.39</v>
+        <v>1.73</v>
       </c>
       <c r="I48" t="n">
-        <v>12947</v>
+        <v>899568</v>
       </c>
       <c r="J48" t="n">
-        <v>1280.6</v>
+        <v>337.3</v>
       </c>
       <c r="K48" t="n">
-        <v>315.9</v>
+        <v>378.1</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>165.8 (±40.9)</t>
+          <t>3034.5 (±3401.5)</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>29.61 (±6.39)</t>
+          <t>5.53 (±1.73)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>1280.6 (±315.9)</t>
+          <t>337.3 (±378.1)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3055,52 +3055,52 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>806.2</v>
       </c>
       <c r="D49" t="n">
-        <v>2.4</v>
+        <v>431.9</v>
       </c>
       <c r="E49" t="n">
-        <v>135.6</v>
+        <v>4470.5</v>
       </c>
       <c r="F49" t="n">
-        <v>67</v>
+        <v>4342.2</v>
       </c>
       <c r="G49" t="n">
-        <v>33.9</v>
+        <v>5.55</v>
       </c>
       <c r="H49" t="n">
-        <v>2.24</v>
+        <v>1.57</v>
       </c>
       <c r="I49" t="n">
-        <v>25982</v>
+        <v>1815370</v>
       </c>
       <c r="J49" t="n">
-        <v>521.9</v>
+        <v>246.3</v>
       </c>
       <c r="K49" t="n">
-        <v>257.9</v>
+        <v>239.2</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>135.6 (±67.0)</t>
+          <t>4470.5 (±4342.2)</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>33.9 (±2.24)</t>
+          <t>5.55 (±1.57)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>521.9 (±257.9)</t>
+          <t>246.3 (±239.2)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3109,52 +3109,52 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>225.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>102.8</v>
+        <v>9.799999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>1414.4</v>
+        <v>203.1</v>
       </c>
       <c r="F50" t="n">
-        <v>1159</v>
+        <v>223.1</v>
       </c>
       <c r="G50" t="n">
-        <v>6.27</v>
+        <v>24.77</v>
       </c>
       <c r="H50" t="n">
-        <v>1.57</v>
+        <v>1.09</v>
       </c>
       <c r="I50" t="n">
-        <v>915802</v>
+        <v>212692</v>
       </c>
       <c r="J50" t="n">
-        <v>154.4</v>
+        <v>95.5</v>
       </c>
       <c r="K50" t="n">
-        <v>126.6</v>
+        <v>104.9</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1414.4 (±1159.0)</t>
+          <t>203.1 (±223.1)</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>6.27 (±1.57)</t>
+          <t>24.77 (±1.09)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>154.4 (±126.6)</t>
+          <t>95.5 (±104.9)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3163,52 +3163,52 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>448</v>
+        <v>58.2</v>
       </c>
       <c r="D51" t="n">
-        <v>337.8</v>
+        <v>34.2</v>
       </c>
       <c r="E51" t="n">
-        <v>2451</v>
+        <v>481.3</v>
       </c>
       <c r="F51" t="n">
-        <v>3570.4</v>
+        <v>458.9</v>
       </c>
       <c r="G51" t="n">
-        <v>5.47</v>
+        <v>8.27</v>
       </c>
       <c r="H51" t="n">
-        <v>2.19</v>
+        <v>1.91</v>
       </c>
       <c r="I51" t="n">
-        <v>899568</v>
+        <v>222552</v>
       </c>
       <c r="J51" t="n">
-        <v>272.5</v>
+        <v>216.3</v>
       </c>
       <c r="K51" t="n">
-        <v>396.9</v>
+        <v>206.2</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2451.0 (±3570.4)</t>
+          <t>481.3 (±458.9)</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>5.47 (±2.19)</t>
+          <t>8.27 (±1.91)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>272.5 (±396.9)</t>
+          <t>216.3 (±206.2)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3217,52 +3217,52 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>670.2</v>
+        <v>54.59999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>431.9</v>
+        <v>43.8</v>
       </c>
       <c r="E52" t="n">
-        <v>3705.6</v>
+        <v>611.9</v>
       </c>
       <c r="F52" t="n">
-        <v>4558.2</v>
+        <v>595</v>
       </c>
       <c r="G52" t="n">
-        <v>5.53</v>
+        <v>11.21</v>
       </c>
       <c r="H52" t="n">
-        <v>1.97</v>
+        <v>1.06</v>
       </c>
       <c r="I52" t="n">
-        <v>1815370</v>
+        <v>435244</v>
       </c>
       <c r="J52" t="n">
-        <v>204.1</v>
+        <v>140.6</v>
       </c>
       <c r="K52" t="n">
-        <v>251.1</v>
+        <v>136.7</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>3705.6 (±4558.2)</t>
+          <t>611.9 (±595.0)</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>5.53 (±1.97)</t>
+          <t>11.21 (±1.06)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>204.1 (±251.1)</t>
+          <t>140.6 (±136.7)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3271,52 +3271,52 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.199999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="D53" t="n">
-        <v>9.799999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="E53" t="n">
-        <v>205.8</v>
+        <v>247.7</v>
       </c>
       <c r="F53" t="n">
-        <v>227.8</v>
+        <v>336.3</v>
       </c>
       <c r="G53" t="n">
-        <v>25.1</v>
+        <v>18.77</v>
       </c>
       <c r="H53" t="n">
-        <v>1.01</v>
+        <v>2.23</v>
       </c>
       <c r="I53" t="n">
-        <v>212692</v>
+        <v>163917</v>
       </c>
       <c r="J53" t="n">
-        <v>96.8</v>
+        <v>151.1</v>
       </c>
       <c r="K53" t="n">
-        <v>107.1</v>
+        <v>205.2</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>205.8 (±227.8)</t>
+          <t>247.7 (±336.3)</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>25.1 (±1.01)</t>
+          <t>18.77 (±2.23)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>96.8 (±107.1)</t>
+          <t>151.1 (±205.2)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3325,52 +3325,52 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>58.2</v>
+        <v>35.4</v>
       </c>
       <c r="D54" t="n">
-        <v>34.2</v>
+        <v>20.9</v>
       </c>
       <c r="E54" t="n">
-        <v>510.2</v>
+        <v>604.5</v>
       </c>
       <c r="F54" t="n">
-        <v>474.9</v>
+        <v>447.2</v>
       </c>
       <c r="G54" t="n">
-        <v>8.77</v>
+        <v>17.08</v>
       </c>
       <c r="H54" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="I54" t="n">
-        <v>222552</v>
+        <v>186439</v>
       </c>
       <c r="J54" t="n">
-        <v>229.2</v>
+        <v>324.2</v>
       </c>
       <c r="K54" t="n">
-        <v>213.4</v>
+        <v>239.9</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>510.2 (±474.9)</t>
+          <t>604.5 (±447.2)</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>8.77 (±1.89)</t>
+          <t>17.08 (±1.6)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>229.2 (±213.4)</t>
+          <t>324.2 (±239.9)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3379,52 +3379,52 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>54.59999999999999</v>
+        <v>43</v>
       </c>
       <c r="D55" t="n">
-        <v>43.8</v>
+        <v>38.6</v>
       </c>
       <c r="E55" t="n">
-        <v>637.6</v>
+        <v>794.2</v>
       </c>
       <c r="F55" t="n">
-        <v>616</v>
+        <v>651.6</v>
       </c>
       <c r="G55" t="n">
-        <v>11.68</v>
+        <v>18.47</v>
       </c>
       <c r="H55" t="n">
-        <v>1.06</v>
+        <v>0.75</v>
       </c>
       <c r="I55" t="n">
-        <v>435244</v>
+        <v>350356</v>
       </c>
       <c r="J55" t="n">
-        <v>146.5</v>
+        <v>226.7</v>
       </c>
       <c r="K55" t="n">
-        <v>141.5</v>
+        <v>186</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>637.6 (±616.0)</t>
+          <t>794.2 (±651.6)</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>11.68 (±1.06)</t>
+          <t>18.47 (±0.75)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>146.5 (±141.5)</t>
+          <t>226.7 (±186.0)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3433,52 +3433,52 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>13.2</v>
+        <v>34.4</v>
       </c>
       <c r="D56" t="n">
-        <v>22.1</v>
+        <v>17.3</v>
       </c>
       <c r="E56" t="n">
-        <v>253</v>
+        <v>398.8</v>
       </c>
       <c r="F56" t="n">
-        <v>346.5</v>
+        <v>296.3</v>
       </c>
       <c r="G56" t="n">
-        <v>19.17</v>
+        <v>11.59</v>
       </c>
       <c r="H56" t="n">
-        <v>2.19</v>
+        <v>1.85</v>
       </c>
       <c r="I56" t="n">
-        <v>163917</v>
+        <v>205921</v>
       </c>
       <c r="J56" t="n">
-        <v>154.3</v>
+        <v>193.7</v>
       </c>
       <c r="K56" t="n">
-        <v>211.4</v>
+        <v>143.9</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>253.0 (±346.5)</t>
+          <t>398.8 (±296.3)</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>19.17 (±2.19)</t>
+          <t>11.59 (±1.85)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>154.3 (±211.4)</t>
+          <t>193.7 (±143.9)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3487,52 +3487,52 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>35.4</v>
+        <v>43.8</v>
       </c>
       <c r="D57" t="n">
-        <v>20.9</v>
+        <v>33.5</v>
       </c>
       <c r="E57" t="n">
-        <v>622.2</v>
+        <v>427.8</v>
       </c>
       <c r="F57" t="n">
-        <v>457.6999999999999</v>
+        <v>494.3</v>
       </c>
       <c r="G57" t="n">
-        <v>17.58</v>
+        <v>9.77</v>
       </c>
       <c r="H57" t="n">
-        <v>1.6</v>
+        <v>2.16</v>
       </c>
       <c r="I57" t="n">
-        <v>186439</v>
+        <v>207472</v>
       </c>
       <c r="J57" t="n">
-        <v>333.7</v>
+        <v>206.2</v>
       </c>
       <c r="K57" t="n">
-        <v>245.5</v>
+        <v>238.2</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>622.2 (±457.7)</t>
+          <t>427.8 (±494.3)</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>17.58 (±1.6)</t>
+          <t>9.77 (±2.16)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>333.7 (±245.5)</t>
+          <t>206.2 (±238.2)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3541,52 +3541,52 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>43</v>
+        <v>74.2</v>
       </c>
       <c r="D58" t="n">
-        <v>38.6</v>
+        <v>51.8</v>
       </c>
       <c r="E58" t="n">
-        <v>814.4</v>
+        <v>697.6</v>
       </c>
       <c r="F58" t="n">
-        <v>670</v>
+        <v>780.2</v>
       </c>
       <c r="G58" t="n">
-        <v>18.94</v>
+        <v>9.4</v>
       </c>
       <c r="H58" t="n">
-        <v>0.75</v>
+        <v>2.33</v>
       </c>
       <c r="I58" t="n">
-        <v>350356</v>
+        <v>413393</v>
       </c>
       <c r="J58" t="n">
-        <v>232.4</v>
+        <v>168.7</v>
       </c>
       <c r="K58" t="n">
-        <v>191.2</v>
+        <v>188.7</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>814.4 (±670.0)</t>
+          <t>697.6 (±780.2)</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>18.94 (±0.75)</t>
+          <t>9.4 (±2.33)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>232.4 (±191.2)</t>
+          <t>168.7 (±188.7)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3595,52 +3595,52 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>34.4</v>
+        <v>58.8</v>
       </c>
       <c r="D59" t="n">
-        <v>17.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>415.8</v>
+        <v>824</v>
       </c>
       <c r="F59" t="n">
-        <v>304</v>
+        <v>1192.2</v>
       </c>
       <c r="G59" t="n">
-        <v>12.09</v>
+        <v>14.01</v>
       </c>
       <c r="H59" t="n">
-        <v>1.83</v>
+        <v>0.47</v>
       </c>
       <c r="I59" t="n">
-        <v>205921</v>
+        <v>5609568</v>
       </c>
       <c r="J59" t="n">
-        <v>201.9</v>
+        <v>14.7</v>
       </c>
       <c r="K59" t="n">
-        <v>147.6</v>
+        <v>21.3</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>415.8 (±304.0)</t>
+          <t>824.0 (±1192.2)</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>12.09 (±1.83)</t>
+          <t>14.01 (±0.47)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>201.9 (±147.6)</t>
+          <t>14.7 (±21.3)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3649,52 +3649,52 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>43.8</v>
+        <v>439.6</v>
       </c>
       <c r="D60" t="n">
-        <v>33.5</v>
+        <v>171.3</v>
       </c>
       <c r="E60" t="n">
-        <v>448</v>
+        <v>4509</v>
       </c>
       <c r="F60" t="n">
-        <v>510.2</v>
+        <v>1747.7</v>
       </c>
       <c r="G60" t="n">
-        <v>10.23</v>
+        <v>10.26</v>
       </c>
       <c r="H60" t="n">
-        <v>2.17</v>
+        <v>0.02</v>
       </c>
       <c r="I60" t="n">
-        <v>207472</v>
+        <v>5679363</v>
       </c>
       <c r="J60" t="n">
-        <v>215.9</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>245.9</v>
+        <v>30.8</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>448.0 (±510.2)</t>
+          <t>4509.0 (±1747.7)</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>10.23 (±2.17)</t>
+          <t>10.26 (±0.02)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>215.9 (±245.9)</t>
+          <t>79.4 (±30.8)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3703,52 +3703,52 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>74.2</v>
+        <v>402.2</v>
       </c>
       <c r="D61" t="n">
-        <v>51.8</v>
+        <v>290.3</v>
       </c>
       <c r="E61" t="n">
-        <v>732.8</v>
+        <v>4088.5</v>
       </c>
       <c r="F61" t="n">
-        <v>805</v>
+        <v>3120.8</v>
       </c>
       <c r="G61" t="n">
-        <v>9.880000000000001</v>
+        <v>10.17</v>
       </c>
       <c r="H61" t="n">
-        <v>2.32</v>
+        <v>0.24</v>
       </c>
       <c r="I61" t="n">
-        <v>413393</v>
+        <v>11288931</v>
       </c>
       <c r="J61" t="n">
-        <v>177.3</v>
+        <v>36.2</v>
       </c>
       <c r="K61" t="n">
-        <v>194.7</v>
+        <v>27.6</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>732.8 (±805.0)</t>
+          <t>4088.5 (±3120.8)</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>9.88 (±2.32)</t>
+          <t>10.17 (±0.24)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>177.3 (±194.7)</t>
+          <t>36.2 (±27.6)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3757,52 +3757,52 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>58.8</v>
+        <v>6.399999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>90.09999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="E62" t="n">
-        <v>853.4</v>
+        <v>109</v>
       </c>
       <c r="F62" t="n">
-        <v>1237.3</v>
+        <v>194.2</v>
       </c>
       <c r="G62" t="n">
-        <v>14.51</v>
+        <v>17.03</v>
       </c>
       <c r="H62" t="n">
-        <v>0.47</v>
+        <v>1.79</v>
       </c>
       <c r="I62" t="n">
-        <v>5609568</v>
+        <v>1704782</v>
       </c>
       <c r="J62" t="n">
-        <v>15.2</v>
+        <v>6.4</v>
       </c>
       <c r="K62" t="n">
-        <v>22.1</v>
+        <v>11.4</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>853.4 (±1237.3)</t>
+          <t>109.0 (±194.2)</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>14.51 (±0.47)</t>
+          <t>17.03 (±1.79)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>15.2 (±22.1)</t>
+          <t>6.4 (±11.4)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3811,52 +3811,52 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>439.6</v>
+        <v>17.2</v>
       </c>
       <c r="D63" t="n">
-        <v>171.3</v>
+        <v>6.8</v>
       </c>
       <c r="E63" t="n">
-        <v>4728.8</v>
+        <v>740</v>
       </c>
       <c r="F63" t="n">
-        <v>1833.4</v>
+        <v>292.1</v>
       </c>
       <c r="G63" t="n">
-        <v>10.76</v>
+        <v>43.02</v>
       </c>
       <c r="H63" t="n">
         <v>0.02</v>
       </c>
       <c r="I63" t="n">
-        <v>5679363</v>
+        <v>1790855</v>
       </c>
       <c r="J63" t="n">
-        <v>83.3</v>
+        <v>41.3</v>
       </c>
       <c r="K63" t="n">
-        <v>32.3</v>
+        <v>16.3</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>4728.8 (±1833.4)</t>
+          <t>740.0 (±292.1)</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>10.76 (±0.02)</t>
+          <t>43.02 (±0.02)</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>83.3 (±32.3)</t>
+          <t>41.3 (±16.3)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3865,52 +3865,52 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>402.2</v>
+        <v>16.8</v>
       </c>
       <c r="D64" t="n">
-        <v>290.3</v>
+        <v>26.5</v>
       </c>
       <c r="E64" t="n">
-        <v>4289.6</v>
+        <v>640.3</v>
       </c>
       <c r="F64" t="n">
-        <v>3265.9</v>
+        <v>740.3</v>
       </c>
       <c r="G64" t="n">
-        <v>10.67</v>
+        <v>38.11</v>
       </c>
       <c r="H64" t="n">
-        <v>0.24</v>
+        <v>6.23</v>
       </c>
       <c r="I64" t="n">
-        <v>11288931</v>
+        <v>3495637</v>
       </c>
       <c r="J64" t="n">
-        <v>38</v>
+        <v>18.3</v>
       </c>
       <c r="K64" t="n">
-        <v>28.9</v>
+        <v>21.2</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>4289.6 (±3265.9)</t>
+          <t>640.3 (±740.3)</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>10.67 (±0.24)</t>
+          <t>38.11 (±6.23)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>38.0 (±28.9)</t>
+          <t>18.3 (±21.2)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3919,52 +3919,52 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6.399999999999999</v>
+        <v>1159.2</v>
       </c>
       <c r="D65" t="n">
-        <v>13.5</v>
+        <v>516.5</v>
       </c>
       <c r="E65" t="n">
-        <v>112.2</v>
+        <v>15899</v>
       </c>
       <c r="F65" t="n">
-        <v>201</v>
+        <v>5592.3</v>
       </c>
       <c r="G65" t="n">
-        <v>17.53</v>
+        <v>13.72</v>
       </c>
       <c r="H65" t="n">
-        <v>1.79</v>
+        <v>0.89</v>
       </c>
       <c r="I65" t="n">
-        <v>1704782</v>
+        <v>12570124</v>
       </c>
       <c r="J65" t="n">
-        <v>6.6</v>
+        <v>126.5</v>
       </c>
       <c r="K65" t="n">
-        <v>11.8</v>
+        <v>44.5</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>112.2 (±201.0)</t>
+          <t>15899.0 (±5592.3)</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17.53 (±1.79)</t>
+          <t>13.72 (±0.89)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>6.6 (±11.8)</t>
+          <t>126.5 (±44.5)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3973,52 +3973,52 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>17.2</v>
+        <v>4021.2</v>
       </c>
       <c r="D66" t="n">
-        <v>6.8</v>
+        <v>1019.3</v>
       </c>
       <c r="E66" t="n">
-        <v>743.6</v>
+        <v>47223</v>
       </c>
       <c r="F66" t="n">
-        <v>293.5</v>
+        <v>11427.2</v>
       </c>
       <c r="G66" t="n">
-        <v>43.23</v>
+        <v>11.74</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="I66" t="n">
-        <v>1790855</v>
+        <v>12609197</v>
       </c>
       <c r="J66" t="n">
-        <v>41.5</v>
+        <v>374.5</v>
       </c>
       <c r="K66" t="n">
-        <v>16.4</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>743.6 (±293.5)</t>
+          <t>47223.0 (±11427.2)</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>43.23 (±0.02)</t>
+          <t>11.74 (±0.1)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>41.5 (±16.4)</t>
+          <t>374.5 (±90.6)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4027,52 +4027,52 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>16.8</v>
+        <v>5155.6</v>
       </c>
       <c r="D67" t="n">
-        <v>26.5</v>
+        <v>1431.5</v>
       </c>
       <c r="E67" t="n">
-        <v>645</v>
+        <v>62080</v>
       </c>
       <c r="F67" t="n">
-        <v>751.1</v>
+        <v>14764.7</v>
       </c>
       <c r="G67" t="n">
-        <v>38.39</v>
+        <v>12.04</v>
       </c>
       <c r="H67" t="n">
-        <v>6.15</v>
+        <v>0.37</v>
       </c>
       <c r="I67" t="n">
-        <v>3495637</v>
+        <v>25179321</v>
       </c>
       <c r="J67" t="n">
-        <v>18.5</v>
+        <v>246.6</v>
       </c>
       <c r="K67" t="n">
-        <v>21.5</v>
+        <v>58.6</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>645.0 (±751.1)</t>
+          <t>62080.0 (±14764.7)</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>38.39 (±6.15)</t>
+          <t>12.04 (±0.37)</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>18.5 (±21.5)</t>
+          <t>246.6 (±58.6)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4081,52 +4081,52 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1159.2</v>
+        <v>159.6</v>
       </c>
       <c r="D68" t="n">
-        <v>516.5</v>
+        <v>136.4</v>
       </c>
       <c r="E68" t="n">
-        <v>16478.6</v>
+        <v>1638.5</v>
       </c>
       <c r="F68" t="n">
-        <v>5850.500000000001</v>
+        <v>1952.7</v>
       </c>
       <c r="G68" t="n">
-        <v>14.22</v>
+        <v>10.27</v>
       </c>
       <c r="H68" t="n">
-        <v>0.89</v>
+        <v>1.86</v>
       </c>
       <c r="I68" t="n">
-        <v>12570124</v>
+        <v>3425343</v>
       </c>
       <c r="J68" t="n">
-        <v>131.1</v>
+        <v>47.8</v>
       </c>
       <c r="K68" t="n">
-        <v>46.5</v>
+        <v>57</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>16478.6 (±5850.5)</t>
+          <t>1638.5 (±1952.7)</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>14.22 (±0.89)</t>
+          <t>10.27 (±1.86)</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>131.1 (±46.5)</t>
+          <t>47.8 (±57.0)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4135,52 +4135,52 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4021.2</v>
+        <v>611.6</v>
       </c>
       <c r="D69" t="n">
-        <v>1019.3</v>
+        <v>231.9</v>
       </c>
       <c r="E69" t="n">
-        <v>49233.6</v>
+        <v>4415.2</v>
       </c>
       <c r="F69" t="n">
-        <v>11936.9</v>
+        <v>3151.3</v>
       </c>
       <c r="G69" t="n">
-        <v>12.24</v>
+        <v>7.22</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1</v>
+        <v>1.75</v>
       </c>
       <c r="I69" t="n">
-        <v>12609197</v>
+        <v>3193157</v>
       </c>
       <c r="J69" t="n">
-        <v>390.5</v>
+        <v>138.3</v>
       </c>
       <c r="K69" t="n">
-        <v>94.7</v>
+        <v>98.7</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>49233.6 (±11936.9)</t>
+          <t>4415.2 (±3151.3)</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>12.24 (±0.1)</t>
+          <t>7.22 (±1.75)</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>390.5 (±94.7)</t>
+          <t>138.3 (±98.7)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4189,52 +4189,52 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5155.6</v>
+        <v>767.5999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>1431.5</v>
+        <v>247.7</v>
       </c>
       <c r="E70" t="n">
-        <v>64657.8</v>
+        <v>5932.7</v>
       </c>
       <c r="F70" t="n">
-        <v>15480.5</v>
+        <v>3453.799999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>12.54</v>
+        <v>7.73</v>
       </c>
       <c r="H70" t="n">
-        <v>0.37</v>
+        <v>1.52</v>
       </c>
       <c r="I70" t="n">
-        <v>25179321</v>
+        <v>6618500</v>
       </c>
       <c r="J70" t="n">
-        <v>256.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>61.5</v>
+        <v>52.2</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>64657.8 (±15480.5)</t>
+          <t>5932.7 (±3453.8)</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>12.54 (±0.37)</t>
+          <t>7.73 (±1.52)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>256.8 (±61.5)</t>
+          <t>89.6 (±52.2)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4243,52 +4243,52 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>159.6</v>
+        <v>1428.6</v>
       </c>
       <c r="D71" t="n">
-        <v>136.4</v>
+        <v>270</v>
       </c>
       <c r="E71" t="n">
-        <v>1716.8</v>
+        <v>12731.5</v>
       </c>
       <c r="F71" t="n">
-        <v>2018.1</v>
+        <v>3122.9</v>
       </c>
       <c r="G71" t="n">
-        <v>10.76</v>
+        <v>8.91</v>
       </c>
       <c r="H71" t="n">
-        <v>1.86</v>
+        <v>0.42</v>
       </c>
       <c r="I71" t="n">
-        <v>3425343</v>
+        <v>6213048</v>
       </c>
       <c r="J71" t="n">
-        <v>50.1</v>
+        <v>204.9</v>
       </c>
       <c r="K71" t="n">
-        <v>58.9</v>
+        <v>50.3</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1716.8 (±2018.1)</t>
+          <t>12731.5 (±3122.9)</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>10.76 (±1.86)</t>
+          <t>8.91 (±0.42)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>50.1 (±58.9)</t>
+          <t>204.9 (±50.3)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4297,52 +4297,52 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>611.6</v>
+        <v>3988</v>
       </c>
       <c r="D72" t="n">
-        <v>231.9</v>
+        <v>650.6</v>
       </c>
       <c r="E72" t="n">
-        <v>4718.200000000001</v>
+        <v>33172</v>
       </c>
       <c r="F72" t="n">
-        <v>3263.9</v>
+        <v>7832.5</v>
       </c>
       <c r="G72" t="n">
-        <v>7.71</v>
+        <v>8.32</v>
       </c>
       <c r="H72" t="n">
-        <v>1.75</v>
+        <v>0.52</v>
       </c>
       <c r="I72" t="n">
-        <v>3193157</v>
+        <v>6422649</v>
       </c>
       <c r="J72" t="n">
-        <v>147.8</v>
+        <v>516.5</v>
       </c>
       <c r="K72" t="n">
-        <v>102.2</v>
+        <v>122</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>4718.2 (±3263.9)</t>
+          <t>33172.0 (±7832.5)</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>7.71 (±1.75)</t>
+          <t>8.32 (±0.52)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>147.8 (±102.2)</t>
+          <t>516.5 (±122.0)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4351,52 +4351,52 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>767.5999999999999</v>
+        <v>5416.6</v>
       </c>
       <c r="D73" t="n">
-        <v>247.7</v>
+        <v>792.8000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>6312.200000000001</v>
+        <v>45903.5</v>
       </c>
       <c r="F73" t="n">
-        <v>3573.2</v>
+        <v>10274.1</v>
       </c>
       <c r="G73" t="n">
-        <v>8.220000000000001</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1.52</v>
+        <v>0.58</v>
       </c>
       <c r="I73" t="n">
-        <v>6618500</v>
+        <v>12635697</v>
       </c>
       <c r="J73" t="n">
-        <v>95.40000000000001</v>
+        <v>363.3</v>
       </c>
       <c r="K73" t="n">
-        <v>54</v>
+        <v>81.3</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>6312.2 (±3573.2)</t>
+          <t>45903.5 (±10274.1)</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>8.22 (±1.52)</t>
+          <t>8.47 (±0.58)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>95.4 (±54.0)</t>
+          <t>363.3 (±81.3)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4405,52 +4405,52 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1428.6</v>
+        <v>72</v>
       </c>
       <c r="D74" t="n">
-        <v>270</v>
+        <v>154.8</v>
       </c>
       <c r="E74" t="n">
-        <v>13445.8</v>
+        <v>1070</v>
       </c>
       <c r="F74" t="n">
-        <v>3258</v>
+        <v>1284.1</v>
       </c>
       <c r="G74" t="n">
-        <v>9.41</v>
+        <v>14.86</v>
       </c>
       <c r="H74" t="n">
-        <v>0.42</v>
+        <v>4.48</v>
       </c>
       <c r="I74" t="n">
-        <v>6213048</v>
+        <v>1826899</v>
       </c>
       <c r="J74" t="n">
-        <v>216.4</v>
+        <v>58.6</v>
       </c>
       <c r="K74" t="n">
-        <v>52.4</v>
+        <v>70.3</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>13445.8 (±3258.0)</t>
+          <t>1070.0 (±1284.1)</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>9.41 (±0.42)</t>
+          <t>14.86 (±4.48)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>216.4 (±52.4)</t>
+          <t>58.6 (±70.3)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4459,52 +4459,52 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3988</v>
+        <v>38.8</v>
       </c>
       <c r="D75" t="n">
-        <v>650.6</v>
+        <v>55.09999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>35166</v>
+        <v>907.9</v>
       </c>
       <c r="F75" t="n">
-        <v>8157.799999999999</v>
+        <v>1387.2</v>
       </c>
       <c r="G75" t="n">
-        <v>8.82</v>
+        <v>23.4</v>
       </c>
       <c r="H75" t="n">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
       <c r="I75" t="n">
-        <v>6422649</v>
+        <v>1862079</v>
       </c>
       <c r="J75" t="n">
-        <v>547.5</v>
+        <v>48.8</v>
       </c>
       <c r="K75" t="n">
-        <v>127</v>
+        <v>74.5</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>35166.0 (±8157.8)</t>
+          <t>907.9 (±1387.2)</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>8.82 (±0.52)</t>
+          <t>23.4 (±1.04)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>547.5 (±127.0)</t>
+          <t>48.8 (±74.5)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4513,52 +4513,52 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5416.6</v>
+        <v>79.19999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>792.8000000000001</v>
+        <v>39.7</v>
       </c>
       <c r="E76" t="n">
-        <v>48611.8</v>
+        <v>1492.2</v>
       </c>
       <c r="F76" t="n">
-        <v>10670.4</v>
+        <v>871.8</v>
       </c>
       <c r="G76" t="n">
-        <v>8.970000000000001</v>
+        <v>18.84</v>
       </c>
       <c r="H76" t="n">
-        <v>0.58</v>
+        <v>1.04</v>
       </c>
       <c r="I76" t="n">
-        <v>12635697</v>
+        <v>3688978</v>
       </c>
       <c r="J76" t="n">
-        <v>384.7</v>
+        <v>40.5</v>
       </c>
       <c r="K76" t="n">
-        <v>84.40000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>48611.8 (±10670.4)</t>
+          <t>1492.2 (±871.8)</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>8.97 (±0.58)</t>
+          <t>18.84 (±1.04)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>384.7 (±84.4)</t>
+          <t>40.5 (±23.6)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4567,52 +4567,52 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
-        <v>154.8</v>
+        <v>29.9</v>
       </c>
       <c r="E77" t="n">
-        <v>1106</v>
+        <v>585.5</v>
       </c>
       <c r="F77" t="n">
-        <v>1361.4</v>
+        <v>373.8</v>
       </c>
       <c r="G77" t="n">
-        <v>15.36</v>
+        <v>18.89</v>
       </c>
       <c r="H77" t="n">
-        <v>4.48</v>
+        <v>3.14</v>
       </c>
       <c r="I77" t="n">
-        <v>1826899</v>
+        <v>649396</v>
       </c>
       <c r="J77" t="n">
-        <v>60.5</v>
+        <v>90.2</v>
       </c>
       <c r="K77" t="n">
-        <v>74.5</v>
+        <v>57.6</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1106.0 (±1361.4)</t>
+          <t>585.5 (±373.8)</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>15.36 (±4.48)</t>
+          <t>18.89 (±3.14)</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>60.5 (±74.5)</t>
+          <t>90.2 (±57.6)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4621,52 +4621,52 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38.8</v>
+        <v>21.2</v>
       </c>
       <c r="D78" t="n">
-        <v>55.09999999999999</v>
+        <v>61.6</v>
       </c>
       <c r="E78" t="n">
-        <v>925.2</v>
+        <v>420</v>
       </c>
       <c r="F78" t="n">
-        <v>1411.6</v>
+        <v>962</v>
       </c>
       <c r="G78" t="n">
-        <v>23.85</v>
+        <v>19.81</v>
       </c>
       <c r="H78" t="n">
-        <v>1.04</v>
+        <v>3.12</v>
       </c>
       <c r="I78" t="n">
-        <v>1862079</v>
+        <v>706659</v>
       </c>
       <c r="J78" t="n">
-        <v>49.7</v>
+        <v>59.4</v>
       </c>
       <c r="K78" t="n">
-        <v>75.8</v>
+        <v>136.1</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>925.2 (±1411.6)</t>
+          <t>420.0 (±962.0)</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>23.85 (±1.04)</t>
+          <t>19.81 (±3.12)</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>49.7 (±75.8)</t>
+          <t>59.4 (±136.1)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4675,52 +4675,52 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>79.19999999999999</v>
+        <v>43.4</v>
       </c>
       <c r="D79" t="n">
-        <v>39.7</v>
+        <v>35.1</v>
       </c>
       <c r="E79" t="n">
-        <v>1530</v>
+        <v>915.5</v>
       </c>
       <c r="F79" t="n">
-        <v>888.6</v>
+        <v>668.2</v>
       </c>
       <c r="G79" t="n">
-        <v>19.32</v>
+        <v>21.09</v>
       </c>
       <c r="H79" t="n">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="I79" t="n">
-        <v>3688978</v>
+        <v>1356055</v>
       </c>
       <c r="J79" t="n">
-        <v>41.5</v>
+        <v>67.5</v>
       </c>
       <c r="K79" t="n">
-        <v>24.1</v>
+        <v>49.3</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1530.0 (±888.6)</t>
+          <t>915.5 (±668.2)</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>19.32 (±1.02)</t>
+          <t>21.09 (±0.92)</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>41.5 (±24.1)</t>
+          <t>67.5 (±49.3)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4729,52 +4729,52 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>31</v>
+        <v>2266.4</v>
       </c>
       <c r="D80" t="n">
-        <v>29.9</v>
+        <v>429.7</v>
       </c>
       <c r="E80" t="n">
-        <v>601</v>
+        <v>14161.3</v>
       </c>
       <c r="F80" t="n">
-        <v>388.7</v>
+        <v>4312</v>
       </c>
       <c r="G80" t="n">
-        <v>19.39</v>
+        <v>6.25</v>
       </c>
       <c r="H80" t="n">
-        <v>3.14</v>
+        <v>0.6</v>
       </c>
       <c r="I80" t="n">
-        <v>649396</v>
+        <v>15560507</v>
       </c>
       <c r="J80" t="n">
-        <v>92.5</v>
+        <v>91</v>
       </c>
       <c r="K80" t="n">
-        <v>59.9</v>
+        <v>27.7</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>601.0 (±388.7)</t>
+          <t>14161.3 (±4312.0)</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>19.39 (±3.14)</t>
+          <t>6.25 (±0.6)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>92.5 (±59.9)</t>
+          <t>91.0 (±27.7)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4783,52 +4783,52 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>21.2</v>
+        <v>3571.8</v>
       </c>
       <c r="D81" t="n">
-        <v>61.6</v>
+        <v>587.5</v>
       </c>
       <c r="E81" t="n">
-        <v>430.6</v>
+        <v>18946.5</v>
       </c>
       <c r="F81" t="n">
-        <v>992.8000000000001</v>
+        <v>7660.599999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>20.31</v>
+        <v>5.3</v>
       </c>
       <c r="H81" t="n">
-        <v>3.12</v>
+        <v>1.1</v>
       </c>
       <c r="I81" t="n">
-        <v>706659</v>
+        <v>15627638</v>
       </c>
       <c r="J81" t="n">
-        <v>60.9</v>
+        <v>121.2</v>
       </c>
       <c r="K81" t="n">
-        <v>140.5</v>
+        <v>49</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>430.6 (±992.8)</t>
+          <t>18946.5 (±7660.6)</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>20.31 (±3.12)</t>
+          <t>5.3 (±1.1)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>60.9 (±140.5)</t>
+          <t>121.2 (±49.0)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4837,52 +4837,52 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>43.4</v>
+        <v>5794</v>
       </c>
       <c r="D82" t="n">
-        <v>35.1</v>
+        <v>934.6999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>937.2</v>
+        <v>31385.3</v>
       </c>
       <c r="F82" t="n">
-        <v>685.8</v>
+        <v>11542.6</v>
       </c>
       <c r="G82" t="n">
-        <v>21.59</v>
+        <v>5.42</v>
       </c>
       <c r="H82" t="n">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="I82" t="n">
-        <v>1356055</v>
+        <v>31188145</v>
       </c>
       <c r="J82" t="n">
-        <v>69.09999999999999</v>
+        <v>100.6</v>
       </c>
       <c r="K82" t="n">
-        <v>50.6</v>
+        <v>37</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>937.2 (±685.8)</t>
+          <t>31385.3 (±11542.6)</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>21.59 (±0.91)</t>
+          <t>5.42 (±0.96)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>69.1 (±50.6)</t>
+          <t>100.6 (±37.0)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4891,52 +4891,52 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2266.4</v>
+        <v>23.8</v>
       </c>
       <c r="D83" t="n">
-        <v>429.7</v>
+        <v>14.4</v>
       </c>
       <c r="E83" t="n">
-        <v>15287.8</v>
+        <v>694.5</v>
       </c>
       <c r="F83" t="n">
-        <v>4524.700000000001</v>
+        <v>435.6</v>
       </c>
       <c r="G83" t="n">
-        <v>6.75</v>
+        <v>29.18</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I83" t="n">
-        <v>15560507</v>
+        <v>3137131</v>
       </c>
       <c r="J83" t="n">
-        <v>98.2</v>
+        <v>22.1</v>
       </c>
       <c r="K83" t="n">
-        <v>29.1</v>
+        <v>13.9</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>15287.8 (±4524.7)</t>
+          <t>694.5 (±435.6)</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>6.75 (±0.6)</t>
+          <t>29.18 (±0.4)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>98.2 (±29.1)</t>
+          <t>22.1 (±13.9)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4945,52 +4945,52 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3571.8</v>
+        <v>152.2</v>
       </c>
       <c r="D84" t="n">
-        <v>587.5</v>
+        <v>175.5</v>
       </c>
       <c r="E84" t="n">
-        <v>20732.4</v>
+        <v>1927.4</v>
       </c>
       <c r="F84" t="n">
-        <v>7954.5</v>
+        <v>1026.1</v>
       </c>
       <c r="G84" t="n">
-        <v>5.8</v>
+        <v>12.66</v>
       </c>
       <c r="H84" t="n">
-        <v>1.1</v>
+        <v>3.65</v>
       </c>
       <c r="I84" t="n">
-        <v>15627638</v>
+        <v>3290270</v>
       </c>
       <c r="J84" t="n">
-        <v>132.7</v>
+        <v>58.6</v>
       </c>
       <c r="K84" t="n">
-        <v>50.9</v>
+        <v>31.2</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>20732.4 (±7954.5)</t>
+          <t>1927.4 (±1026.1)</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>5.8 (±1.1)</t>
+          <t>12.66 (±3.65)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>132.7 (±50.9)</t>
+          <t>58.6 (±31.2)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4999,52 +4999,52 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5794</v>
+        <v>73.8</v>
       </c>
       <c r="D85" t="n">
-        <v>934.6999999999999</v>
+        <v>124.1</v>
       </c>
       <c r="E85" t="n">
-        <v>34281.60000000001</v>
+        <v>1149.1</v>
       </c>
       <c r="F85" t="n">
-        <v>12007.4</v>
+        <v>1649.9</v>
       </c>
       <c r="G85" t="n">
-        <v>5.92</v>
+        <v>15.57</v>
       </c>
       <c r="H85" t="n">
-        <v>0.96</v>
+        <v>1.43</v>
       </c>
       <c r="I85" t="n">
-        <v>31188145</v>
+        <v>6427401</v>
       </c>
       <c r="J85" t="n">
-        <v>109.9</v>
+        <v>17.9</v>
       </c>
       <c r="K85" t="n">
-        <v>38.5</v>
+        <v>25.7</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>34281.6 (±12007.4)</t>
+          <t>1149.1 (±1649.9)</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>5.92 (±0.96)</t>
+          <t>15.57 (±1.43)</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>109.9 (±38.5)</t>
+          <t>17.9 (±25.7)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5053,52 +5053,52 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>23.8</v>
+        <v>58</v>
       </c>
       <c r="D86" t="n">
-        <v>14.4</v>
+        <v>48.40000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>706.4</v>
+        <v>762</v>
       </c>
       <c r="F86" t="n">
-        <v>442.7</v>
+        <v>493</v>
       </c>
       <c r="G86" t="n">
-        <v>29.68</v>
+        <v>13.14</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4</v>
+        <v>1.34</v>
       </c>
       <c r="I86" t="n">
-        <v>3137131</v>
+        <v>2819612</v>
       </c>
       <c r="J86" t="n">
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="K86" t="n">
-        <v>14.1</v>
+        <v>17.5</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>706.4 (±442.7)</t>
+          <t>762.0 (±493.0)</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29.68 (±0.4)</t>
+          <t>13.14 (±1.34)</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>22.5 (±14.1)</t>
+          <t>27.0 (±17.5)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5107,52 +5107,52 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>152.2</v>
+        <v>156.4</v>
       </c>
       <c r="D87" t="n">
-        <v>175.5</v>
+        <v>105.7</v>
       </c>
       <c r="E87" t="n">
-        <v>1992.4</v>
+        <v>1699.1</v>
       </c>
       <c r="F87" t="n">
-        <v>1111.1</v>
+        <v>1903.2</v>
       </c>
       <c r="G87" t="n">
-        <v>13.09</v>
+        <v>10.86</v>
       </c>
       <c r="H87" t="n">
-        <v>3.62</v>
+        <v>2.88</v>
       </c>
       <c r="I87" t="n">
-        <v>3290270</v>
+        <v>2885703</v>
       </c>
       <c r="J87" t="n">
-        <v>60.6</v>
+        <v>58.9</v>
       </c>
       <c r="K87" t="n">
-        <v>33.8</v>
+        <v>66</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>1992.4 (±1111.1)</t>
+          <t>1699.1 (±1903.2)</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>13.09 (±3.62)</t>
+          <t>10.86 (±2.88)</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>60.6 (±33.8)</t>
+          <t>58.9 (±66.0)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5161,207 +5161,45 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>73.8</v>
+        <v>191</v>
       </c>
       <c r="D88" t="n">
-        <v>124.1</v>
+        <v>109.6</v>
       </c>
       <c r="E88" t="n">
-        <v>1179.6</v>
+        <v>1935</v>
       </c>
       <c r="F88" t="n">
-        <v>1707.4</v>
+        <v>1653.3</v>
       </c>
       <c r="G88" t="n">
-        <v>15.98</v>
+        <v>10.13</v>
       </c>
       <c r="H88" t="n">
-        <v>1.39</v>
+        <v>1.81</v>
       </c>
       <c r="I88" t="n">
-        <v>6427401</v>
+        <v>5705315</v>
       </c>
       <c r="J88" t="n">
-        <v>18.4</v>
+        <v>33.9</v>
       </c>
       <c r="K88" t="n">
-        <v>26.6</v>
+        <v>29</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>1179.6 (±1707.4)</t>
+          <t>1935.0 (±1653.3)</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>15.98 (±1.39)</t>
+          <t>10.13 (±1.81)</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>18.4 (±26.6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>58</v>
-      </c>
-      <c r="D89" t="n">
-        <v>48.40000000000001</v>
-      </c>
-      <c r="E89" t="n">
-        <v>791</v>
-      </c>
-      <c r="F89" t="n">
-        <v>517.2</v>
-      </c>
-      <c r="G89" t="n">
-        <v>13.64</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2819612</v>
-      </c>
-      <c r="J89" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K89" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>791.0 (±517.2)</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>13.64 (±1.34)</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>28.1 (±18.3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>156.4</v>
-      </c>
-      <c r="D90" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1775.4</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1953.1</v>
-      </c>
-      <c r="G90" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2885703</v>
-      </c>
-      <c r="J90" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="K90" t="n">
-        <v>67.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>1775.4 (±1953.1)</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>11.35 (±2.88)</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>61.5 (±67.7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>191</v>
-      </c>
-      <c r="D91" t="n">
-        <v>109.6</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2030</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1704.1</v>
-      </c>
-      <c r="G91" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5705315</v>
-      </c>
-      <c r="J91" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="K91" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>2030.0 (±1704.1)</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>10.63 (±1.79)</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>35.6 (±29.9)</t>
+          <t>33.9 (±29.0)</t>
         </is>
       </c>
     </row>
